--- a/ProyectoParcial_Victor_DiSalvatore.xlsx
+++ b/ProyectoParcial_Victor_DiSalvatore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6997E-92E2-4D59-AF2B-118F51B77D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9EC892-F54B-4A49-BC42-887944AB8CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atalanta" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1214,9 +1214,6 @@
     <t>Gol_Primero_Atalanta</t>
   </si>
   <si>
-    <t>Gol_primero_oponente</t>
-  </si>
-  <si>
     <t>Gol_Segundo_Atalanta</t>
   </si>
   <si>
@@ -1239,6 +1236,9 @@
   </si>
   <si>
     <t>(Varios elementos)</t>
+  </si>
+  <si>
+    <t>Gol_Primero_oponente</t>
   </si>
 </sst>
 </file>
@@ -1395,19 +1395,7 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="274">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1430,703 +1418,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -2256,11 +1548,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="1" xr9:uid="{A9950D46-1FDF-4995-9F22-146030351154}">
-      <tableStyleElement type="wholeTable" dxfId="273"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 2" pivot="0" table="0" count="10" xr9:uid="{5C04204E-029D-4E58-A428-B2DE45FC1BC0}">
-      <tableStyleElement type="wholeTable" dxfId="272"/>
-      <tableStyleElement type="headerRow" dxfId="271"/>
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2800,7 +2092,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2812,7 +2104,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.9</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,7 +2218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2938,7 +2230,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3574,7 +2866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3586,7 +2878,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,7 +2991,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3711,7 +3003,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4301,7 +3593,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4313,7 +3605,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4427,7 +3719,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4439,7 +3731,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.9</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5133,7 +4425,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5145,7 +4437,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5255,7 +4547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5267,7 +4559,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5950,7 +5242,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5962,7 +5254,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6065,7 +5357,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6077,7 +5369,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6762,7 +6054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6774,7 +6066,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6879,7 +6171,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6891,7 +6183,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7947,7 +7239,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7959,7 +7251,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8062,7 +7354,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8074,7 +7366,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8177,7 +7469,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8189,7 +7481,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8292,7 +7584,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torino </c:v>
+                  <c:v>Benevento </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8304,7 +7596,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21700,7 +20992,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B52F24AE-2A5C-44F3-9E7C-4D7975A97D3F}" name="TablaDinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B52F24AE-2A5C-44F3-9E7C-4D7975A97D3F}" name="TablaDinámica6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="43">
     <pivotField showAll="0"/>
@@ -21719,7 +21011,7 @@
       <items count="29">
         <item h="1" x="18"/>
         <item h="1" x="12"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="13"/>
         <item h="1" x="2"/>
         <item h="1" x="23"/>
@@ -21739,7 +21031,7 @@
         <item h="1" x="4"/>
         <item h="1" x="14"/>
         <item h="1" x="7"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="9"/>
         <item h="1" x="27"/>
         <item h="1" x="11"/>
@@ -21791,7 +21083,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="22"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -21824,7 +21116,7 @@
     <dataField name="Promedio de Gol_Segundo_Oponente." fld="37" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="248">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21879,7 +21171,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5ACACBA-D9CC-4E20-AB49-59A1A20BE30F}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5ACACBA-D9CC-4E20-AB49-59A1A20BE30F}" name="TablaDinámica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="43">
     <pivotField showAll="0"/>
@@ -21898,7 +21190,7 @@
       <items count="29">
         <item h="1" x="18"/>
         <item h="1" x="12"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="13"/>
         <item h="1" x="2"/>
         <item h="1" x="23"/>
@@ -21918,7 +21210,7 @@
         <item h="1" x="4"/>
         <item h="1" x="14"/>
         <item h="1" x="7"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="9"/>
         <item h="1" x="27"/>
         <item h="1" x="11"/>
@@ -21970,7 +21262,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="22"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -21995,7 +21287,7 @@
     <dataField name="Promedio de Goles_Oponente" fld="41" subtotal="average" baseField="5" baseItem="26"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="247">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22032,7 +21324,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E216608-3288-4CF9-A0FD-FEBD48E53ADA}" name="TablaDinámica13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E216608-3288-4CF9-A0FD-FEBD48E53ADA}" name="TablaDinámica13" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="43">
     <pivotField showAll="0"/>
@@ -22051,7 +21343,7 @@
       <items count="29">
         <item h="1" x="18"/>
         <item h="1" x="12"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="13"/>
         <item h="1" x="2"/>
         <item h="1" x="23"/>
@@ -22071,7 +21363,7 @@
         <item h="1" x="4"/>
         <item h="1" x="14"/>
         <item h="1" x="7"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="9"/>
         <item h="1" x="27"/>
         <item h="1" x="11"/>
@@ -22123,7 +21415,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="22"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -22148,7 +21440,7 @@
     <dataField name="Promedio de Tiros_puerta_Atalanta" fld="14" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="246">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -22158,7 +21450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="245">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -22219,7 +21511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF96FFE-F8E4-42A7-9722-3ED5F239891C}" name="TablaDinámica14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF96FFE-F8E4-42A7-9722-3ED5F239891C}" name="TablaDinámica14" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="43">
     <pivotField showAll="0"/>
@@ -22238,7 +21530,7 @@
       <items count="29">
         <item h="1" x="18"/>
         <item h="1" x="12"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="13"/>
         <item h="1" x="2"/>
         <item h="1" x="26"/>
@@ -22260,7 +21552,7 @@
         <item h="1" x="4"/>
         <item h="1" x="14"/>
         <item h="1" x="7"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="9"/>
         <item h="1" x="27"/>
         <item h="1" x="21"/>
@@ -22310,7 +21602,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="24"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -22367,8 +21659,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3086B6F-F27A-42BA-A06D-7CFF6CF0DD21}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A107:C109" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFC1073E-E86D-4605-AA97-8AE31D4B5CCE}" name="Promedio_tiros" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="43">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -22386,7 +21678,7 @@
       <items count="29">
         <item h="1" x="18"/>
         <item h="1" x="12"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="13"/>
         <item h="1" x="2"/>
         <item h="1" x="23"/>
@@ -22406,7 +21698,176 @@
         <item h="1" x="4"/>
         <item h="1" x="14"/>
         <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="9"/>
+        <item h="1" x="27"/>
+        <item h="1" x="11"/>
+        <item h="1" x="26"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Promedio de Tiros_puerta_Atalanta" fld="14" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="Promedio de Goles_Atalanta" fld="40" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="11" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3086B6F-F27A-42BA-A06D-7CFF6CF0DD21}" name="TablaDinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A107:C109" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="43">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
         <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item h="1" x="18"/>
+        <item h="1" x="12"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="2"/>
+        <item h="1" x="23"/>
+        <item h="1" x="5"/>
+        <item h="1" x="20"/>
+        <item h="1" x="10"/>
+        <item h="1" x="25"/>
+        <item h="1" x="17"/>
+        <item h="1" x="8"/>
+        <item h="1" x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="24"/>
+        <item h="1" x="22"/>
+        <item h="1" x="3"/>
+        <item h="1" x="15"/>
+        <item h="1" x="19"/>
+        <item h="1" x="4"/>
+        <item h="1" x="14"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
         <item h="1" x="9"/>
         <item h="1" x="27"/>
         <item h="1" x="11"/>
@@ -22458,7 +21919,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="22"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -22483,7 +21944,7 @@
     <dataField name="Máx. de Goles_Oponente" fld="41" subtotal="max" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="237">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -22492,7 +21953,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22519,8 +21980,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFC1073E-E86D-4605-AA97-8AE31D4B5CCE}" name="Promedio_tiros" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AEE20B9-8ECA-4C40-B029-8B4A11A95281}" name="TablaDinámica17" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="43">
     <pivotField showAll="0"/>
@@ -22539,7 +22000,7 @@
       <items count="29">
         <item h="1" x="18"/>
         <item h="1" x="12"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="13"/>
         <item h="1" x="2"/>
         <item h="1" x="23"/>
@@ -22559,176 +22020,7 @@
         <item h="1" x="4"/>
         <item h="1" x="14"/>
         <item h="1" x="7"/>
-        <item x="1"/>
-        <item h="1" x="9"/>
-        <item h="1" x="27"/>
-        <item h="1" x="11"/>
-        <item h="1" x="26"/>
-        <item h="1" x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Promedio de Tiros_puerta_Atalanta" fld="14" subtotal="average" baseField="5" baseItem="0"/>
-    <dataField name="Promedio de Goles_Atalanta" fld="40" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="244">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="243">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="11" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleDark20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AEE20B9-8ECA-4C40-B029-8B4A11A95281}" name="TablaDinámica17" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="43">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item h="1" x="18"/>
-        <item h="1" x="12"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="2"/>
-        <item h="1" x="23"/>
-        <item h="1" x="5"/>
-        <item h="1" x="20"/>
-        <item h="1" x="10"/>
-        <item h="1" x="25"/>
-        <item h="1" x="17"/>
-        <item h="1" x="8"/>
-        <item h="1" x="6"/>
-        <item h="1" x="0"/>
-        <item h="1" x="24"/>
-        <item h="1" x="22"/>
-        <item h="1" x="3"/>
-        <item h="1" x="15"/>
-        <item h="1" x="19"/>
-        <item h="1" x="4"/>
-        <item h="1" x="14"/>
-        <item h="1" x="7"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="9"/>
         <item h="1" x="27"/>
         <item h="1" x="11"/>
@@ -22780,7 +22072,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="22"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -22805,7 +22097,7 @@
     <dataField name="Promedio de Tiros_Oponente" fld="11" subtotal="average" baseField="5" baseItem="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="242">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22920,7 +22212,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C01C1FD3-9A37-454F-98DA-FAAE971C377B}" name="TablaDinámica15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C01C1FD3-9A37-454F-98DA-FAAE971C377B}" name="TablaDinámica15" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="43">
     <pivotField showAll="0"/>
@@ -22939,7 +22231,7 @@
       <items count="29">
         <item h="1" x="18"/>
         <item h="1" x="12"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="13"/>
         <item h="1" x="2"/>
         <item h="1" x="23"/>
@@ -22959,7 +22251,7 @@
         <item h="1" x="4"/>
         <item h="1" x="14"/>
         <item h="1" x="7"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="9"/>
         <item h="1" x="27"/>
         <item h="1" x="11"/>
@@ -23011,7 +22303,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="22"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -23036,7 +22328,7 @@
     <dataField name="Promedio de Corners_Oponente" fld="25" subtotal="average" baseField="5" baseItem="13"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="241">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -23155,7 +22447,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F01B9165-7BFD-4881-ACD1-134232D599A2}" name="TablaDinámica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" errorCaption="0" showError="1" missingCaption="0" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F01B9165-7BFD-4881-ACD1-134232D599A2}" name="TablaDinámica8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" errorCaption="0" showError="1" missingCaption="0" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" chartFormat="20">
   <location ref="A4:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="43">
     <pivotField showAll="0"/>
@@ -23174,7 +22466,7 @@
       <items count="28">
         <item h="1" x="18"/>
         <item h="1" x="12"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="13"/>
         <item h="1" x="2"/>
         <item h="1" x="23"/>
@@ -23194,7 +22486,7 @@
         <item h="1" x="4"/>
         <item h="1" x="14"/>
         <item h="1" x="7"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="9"/>
         <item h="1" x="27"/>
         <item h="1" x="11"/>
@@ -23253,7 +22545,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="22"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -23283,14 +22575,14 @@
     <dataField name="Cuenta de Estado_Partido" fld="42" subtotal="count" baseField="5" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="240">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="239">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -23299,7 +22591,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="238">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23330,7 +22622,7 @@
       <items count="28">
         <i x="18"/>
         <i x="12"/>
-        <i x="16"/>
+        <i x="16" s="1"/>
         <i x="13"/>
         <i x="2"/>
         <i x="26"/>
@@ -23352,7 +22644,7 @@
         <i x="4"/>
         <i x="14"/>
         <i x="7"/>
-        <i x="1" s="1"/>
+        <i x="1"/>
         <i x="9"/>
         <i x="21"/>
         <i x="27" nd="1"/>
@@ -23399,7 +22691,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Oponente 3" xr10:uid="{E6A742E9-1419-47C2-8EA2-F4E0F902257E}" cache="SegmentaciónDeDatos_Oponente2" caption="Oponente" startItem="20" style="Estilo de segmentación de datos 2" rowHeight="234950"/>
+  <slicer name="Oponente 3" xr10:uid="{E6A742E9-1419-47C2-8EA2-F4E0F902257E}" cache="SegmentaciónDeDatos_Oponente2" caption="Oponente" style="Estilo de segmentación de datos 2" rowHeight="234950"/>
   <slicer name="Lugar" xr10:uid="{1B6FC04F-B63A-44CC-9C2C-5725EA4E938D}" cache="SegmentaciónDeDatos_Lugar" caption="Lugar" style="Estilo de segmentación de datos 2" rowHeight="234950"/>
 </slicers>
 </file>
@@ -23421,10 +22713,10 @@
   <autoFilter ref="A1:AQ177" xr:uid="{355547FD-39E1-4BF3-B180-0C4EC3FFB732}"/>
   <tableColumns count="43">
     <tableColumn id="2" xr3:uid="{7A6FC9FC-A8B9-4AEF-A48B-984C97164F7E}" name="Fecha"/>
-    <tableColumn id="34" xr3:uid="{C56268D1-8088-4FF7-9032-B8952FB87A94}" name="Mes" dataDxfId="267">
+    <tableColumn id="34" xr3:uid="{C56268D1-8088-4FF7-9032-B8952FB87A94}" name="Mes" dataDxfId="31">
       <calculatedColumnFormula>MID(A2,5,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{AF824162-31FA-4F88-8AA8-968891EA145C}" name="Estación" dataDxfId="266">
+    <tableColumn id="35" xr3:uid="{AF824162-31FA-4F88-8AA8-968891EA145C}" name="Estación" dataDxfId="30">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(B2="Dec", B2="Jan", B2="Feb"), "Invierno", OR(B2="Mar", B2="Apr", B2="May"), "Primavera", OR(B2="Jun", B2="Jul", B2="Aug"), "Verano", OR(B2="Sep", B2="Oct", B2="Nov"), "Otoño")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{32885D5F-67BB-4987-88B7-6A348B3BA146}" name="horario"/>
@@ -23434,71 +22726,71 @@
     <tableColumn id="9" xr3:uid="{17A300F6-37BB-4718-966B-E6B07EEF10C8}" name="Resultado"/>
     <tableColumn id="10" xr3:uid="{96C2DA7C-A230-4D83-A949-9BE6D68D41A6}" name="total_tiros_local"/>
     <tableColumn id="11" xr3:uid="{6FBAF3D1-4241-4424-BB75-FE300A13BFFB}" name="total_tiros_visitante"/>
-    <tableColumn id="46" xr3:uid="{E36F3A63-6863-4C54-B2BD-6F54DAD70DDE}" name="Tiros_Atalanta" dataDxfId="265">
+    <tableColumn id="46" xr3:uid="{E36F3A63-6863-4C54-B2BD-6F54DAD70DDE}" name="Tiros_Atalanta" dataDxfId="29">
       <calculatedColumnFormula>IF(E2 = "H", I2, IF(E2 = "A", J2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{75CE91D6-5438-4EF2-AFE3-7A50DFD72EF7}" name="Tiros_Oponente" dataDxfId="264">
+    <tableColumn id="45" xr3:uid="{75CE91D6-5438-4EF2-AFE3-7A50DFD72EF7}" name="Tiros_Oponente" dataDxfId="28">
       <calculatedColumnFormula>IF(E2 = "A", I2, IF(E2 = "H", J2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{8BC0EF46-88A3-4307-9E88-5D2A0D6CB7F1}" name="Tiros_puerta_local"/>
     <tableColumn id="13" xr3:uid="{B86083AB-08BE-4B80-A768-ACF840FF9391}" name="tiros_puerta_visitante"/>
-    <tableColumn id="39" xr3:uid="{DE483E76-E90C-480F-8171-540476ABA232}" name="Tiros_puerta_Atalanta" dataDxfId="263">
+    <tableColumn id="39" xr3:uid="{DE483E76-E90C-480F-8171-540476ABA232}" name="Tiros_puerta_Atalanta" dataDxfId="27">
       <calculatedColumnFormula>IF(E2 = "H", M2, IF(E2 = "A", N2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{F7307B9D-F355-4F03-BB98-D7A52A102644}" name="Tiros_puerta_visita" dataDxfId="262">
+    <tableColumn id="40" xr3:uid="{F7307B9D-F355-4F03-BB98-D7A52A102644}" name="Tiros_puerta_visita" dataDxfId="26">
       <calculatedColumnFormula>IF(E2 = "A", M2, IF(E2 = "H", N2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{901080BF-7355-4D92-AA65-44446DDBB5A8}" name="Posesion_local"/>
     <tableColumn id="15" xr3:uid="{E59BD9AB-348F-4F69-98AF-17F28326E9D7}" name="Posesion_visitante"/>
-    <tableColumn id="41" xr3:uid="{AB45D7A5-F8E2-4880-BC97-1B73E4332AEF}" name="Posesion_Atalanta" dataDxfId="261" dataCellStyle="Millares">
+    <tableColumn id="41" xr3:uid="{AB45D7A5-F8E2-4880-BC97-1B73E4332AEF}" name="Posesion_Atalanta" dataDxfId="25" dataCellStyle="Millares">
       <calculatedColumnFormula>IF(E2 = "H", Q2, IF(E2 ="A", R2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{C1AD16B1-36B2-495B-AA15-634F12E05EA4}" name="Posesion_Oponente" dataDxfId="260">
+    <tableColumn id="42" xr3:uid="{C1AD16B1-36B2-495B-AA15-634F12E05EA4}" name="Posesion_Oponente" dataDxfId="24">
       <calculatedColumnFormula>IF(E2 = "A", Q2, IF(E2 = "H", R2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{1AA04300-3141-4172-802E-B02927F56EC4}" name="corner_local"/>
     <tableColumn id="17" xr3:uid="{FA1BB7BE-6FFD-4746-BBB7-98FDCEBF7774}" name="corner_visitante"/>
     <tableColumn id="18" xr3:uid="{4FE6B110-603B-44D2-A39A-A3C7693D4297}" name="faltas_local"/>
     <tableColumn id="19" xr3:uid="{F68F88BE-A303-4B3C-8E6F-65DDE598693B}" name="faltas_visitante"/>
-    <tableColumn id="43" xr3:uid="{33AF1F8D-328E-4682-BC5A-2694E6424EB4}" name="Corners_Atalanta" dataDxfId="259">
+    <tableColumn id="43" xr3:uid="{33AF1F8D-328E-4682-BC5A-2694E6424EB4}" name="Corners_Atalanta" dataDxfId="23">
       <calculatedColumnFormula>IF(E2 = "H", U2, IF(E2 = "A", V2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{B2916983-6748-4231-8D64-7B9CEB25B8A0}" name="Corners_Oponente" dataDxfId="258">
+    <tableColumn id="44" xr3:uid="{B2916983-6748-4231-8D64-7B9CEB25B8A0}" name="Corners_Oponente" dataDxfId="22">
       <calculatedColumnFormula>IF(E2 = "A", U2, IF(E2 = "H", V2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{8A30EDF4-E374-4DBF-92AC-2E35348B3B1C}" name="Faltas_Atalanta" dataDxfId="257">
+    <tableColumn id="37" xr3:uid="{8A30EDF4-E374-4DBF-92AC-2E35348B3B1C}" name="Faltas_Atalanta" dataDxfId="21">
       <calculatedColumnFormula>IF(E2 = "H", W2, IF(E2= "A", X2, 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{1A993E24-211A-47C4-A40C-6C113A44BAE8}" name="Faltas_visitante2" dataDxfId="256">
+    <tableColumn id="38" xr3:uid="{1A993E24-211A-47C4-A40C-6C113A44BAE8}" name="Faltas_visitante2" dataDxfId="20">
       <calculatedColumnFormula>IF(E2 = "A", W2, IF(E2 = "H", X2, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{7FEAAC95-3178-4B7C-8D6C-ECB287BBC036}" name="fuera_local"/>
     <tableColumn id="21" xr3:uid="{3439DA6E-BFA7-4FE6-B71C-DC82BC166F12}" name="fuera_visitante"/>
     <tableColumn id="22" xr3:uid="{CF54476B-E64C-43C7-8E03-3AE9DADBED24}" name="Arbitro"/>
     <tableColumn id="23" xr3:uid="{55A2BC1F-3FA7-43E3-BF17-4857524847D2}" name="Gol_local_primero"/>
-    <tableColumn id="1" xr3:uid="{2FDE6420-8EBE-4B74-A344-35FA6A34FA1A}" name="Gol_Primero_Atalanta" dataDxfId="255">
+    <tableColumn id="1" xr3:uid="{2FDE6420-8EBE-4B74-A344-35FA6A34FA1A}" name="Gol_Primero_Atalanta" dataDxfId="19">
       <calculatedColumnFormula>IF(E2 = "H", AF2, IF(E2 ="A", AI2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{301F2987-D7F9-4BB1-B4E2-5DC2B8B0A6B2}" name="Gol_primero_oponente" dataDxfId="254">
+    <tableColumn id="5" xr3:uid="{301F2987-D7F9-4BB1-B4E2-5DC2B8B0A6B2}" name="Gol_Primero_oponente" dataDxfId="18">
       <calculatedColumnFormula>IF(E2 = "A", AF2, IF(E2 ="H", AI2,0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{CEA96F65-3795-478F-BCD1-E0248953855F}" name="Gol_visitante_primero"/>
     <tableColumn id="25" xr3:uid="{3EDE1ECA-1582-4E23-A765-8F617C869508}" name="Gol_local_segundo"/>
-    <tableColumn id="28" xr3:uid="{BF938AB4-9C25-49A8-8FC0-8F77CCA96AAF}" name="Gol_Segundo_Atalanta" dataDxfId="253">
+    <tableColumn id="28" xr3:uid="{BF938AB4-9C25-49A8-8FC0-8F77CCA96AAF}" name="Gol_Segundo_Atalanta" dataDxfId="17">
       <calculatedColumnFormula>IF(E2 ="H", AJ2, IF(E2 ="A", AM2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7E98ABDB-2CEF-44B3-A939-E6402B39660A}" name="Gol_Segundo_Oponente." dataDxfId="252">
+    <tableColumn id="8" xr3:uid="{7E98ABDB-2CEF-44B3-A939-E6402B39660A}" name="Gol_Segundo_Oponente." dataDxfId="16">
       <calculatedColumnFormula>IF(E2="A", AJ2,IF(E2 ="H", AM2,0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" xr3:uid="{8DF42E66-1C77-4056-BF47-6D8A71437EC7}" name="Gol_visitante_segundo"/>
     <tableColumn id="27" xr3:uid="{FFD73A8B-1FB2-4AC1-81EA-77743CBB8321}" name="Ranking_oponente"/>
-    <tableColumn id="29" xr3:uid="{381B3AC3-E660-4879-9971-0F95BEE107F5}" name="Goles_Atalanta" dataDxfId="251">
+    <tableColumn id="29" xr3:uid="{381B3AC3-E660-4879-9971-0F95BEE107F5}" name="Goles_Atalanta" dataDxfId="15">
       <calculatedColumnFormula>IF(E2="H", AF2+AJ2, IF(E2="A", AI2+AM2, 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{DD97BDEA-07D3-41FB-B1E2-A1CAC6DD09F4}" name="Goles_Oponente" dataDxfId="250">
+    <tableColumn id="31" xr3:uid="{DD97BDEA-07D3-41FB-B1E2-A1CAC6DD09F4}" name="Goles_Oponente" dataDxfId="14">
       <calculatedColumnFormula>IF(E2="A", AF2+AJ2, IF(E2="H", AI2+AM2, 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{D75BB505-9C94-49F7-9AF4-5361A93A897C}" name="Estado_Partido" dataDxfId="249">
+    <tableColumn id="32" xr3:uid="{D75BB505-9C94-49F7-9AF4-5361A93A897C}" name="Estado_Partido" dataDxfId="13">
       <calculatedColumnFormula>IF(AO2&gt;AP2,"Victoria",IF(AP2&gt;AO2,"Derrota",IF(AP2=AO2,"Empate")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -23793,8 +23085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ177"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:AQ177"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23819,10 +23111,11 @@
     <col min="29" max="29" width="12.5546875" customWidth="1"/>
     <col min="30" max="30" width="16" customWidth="1"/>
     <col min="31" max="31" width="9" customWidth="1"/>
-    <col min="32" max="32" width="18.77734375" customWidth="1"/>
+    <col min="32" max="32" width="18.77734375" hidden="1" customWidth="1"/>
     <col min="33" max="34" width="22.21875" customWidth="1"/>
-    <col min="35" max="35" width="19.21875" customWidth="1"/>
-    <col min="36" max="38" width="22.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.21875" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="38" width="22.6640625" customWidth="1"/>
     <col min="39" max="39" width="19.21875" customWidth="1"/>
     <col min="40" max="40" width="11.21875" customWidth="1"/>
     <col min="44" max="44" width="11.5546875" customWidth="1"/>
@@ -23835,7 +23128,7 @@
         <v>342</v>
       </c>
       <c r="B1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C1" t="s">
         <v>343</v>
@@ -23931,7 +23224,7 @@
         <v>377</v>
       </c>
       <c r="AH1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AI1" t="s">
         <v>17</v>
@@ -23940,10 +23233,10 @@
         <v>18</v>
       </c>
       <c r="AK1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL1" t="s">
         <v>379</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>380</v>
       </c>
       <c r="AM1" t="s">
         <v>19</v>
@@ -50364,13 +49657,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AR1:AR3 AP178:AP1048576 AQ1:AQ177">
-    <cfRule type="containsText" dxfId="270" priority="1" operator="containsText" text="Empate">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="Empate">
       <formula>NOT(ISERROR(SEARCH("Empate",AP1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="2" operator="containsText" text="Derrota">
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="Derrota">
       <formula>NOT(ISERROR(SEARCH("Derrota",AP1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="3" stopIfTrue="1" operator="containsText" text="Victoria">
+    <cfRule type="containsText" dxfId="32" priority="3" stopIfTrue="1" operator="containsText" text="Victoria">
       <formula>NOT(ISERROR(SEARCH("Victoria",AP1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50404,7 +49697,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -50434,19 +49727,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -50454,16 +49747,16 @@
         <v>333</v>
       </c>
       <c r="B7" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -50475,7 +49768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A087FAC2-142E-4024-ABF0-D52D574C0A80}">
   <dimension ref="M9:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
@@ -50502,7 +49795,7 @@
     <row r="13" spans="14:28" ht="21" x14ac:dyDescent="0.4">
       <c r="R13" s="15" t="str">
         <f>Tiros_Puerta_Goles!A108</f>
-        <v>Torino </v>
+        <v>Benevento </v>
       </c>
       <c r="V13" s="13"/>
       <c r="AA13" s="13"/>
@@ -50514,7 +49807,7 @@
       </c>
       <c r="S14" s="15">
         <f>VLOOKUP(Tiros_Puerta_Goles!A108, Tiros_Puerta_Goles!A107:C136, 3, FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U14" s="15"/>
       <c r="W14" s="15"/>
@@ -50525,7 +49818,7 @@
     <row r="20" spans="13:23" ht="18" x14ac:dyDescent="0.35">
       <c r="S20" s="18" t="str">
         <f>Resultados_Partidos!A6</f>
-        <v>Torino </v>
+        <v>Benevento </v>
       </c>
     </row>
     <row r="21" spans="13:23" ht="21" x14ac:dyDescent="0.4">
@@ -50547,15 +49840,15 @@
       <c r="M22" s="6"/>
       <c r="R22" s="16">
         <f>VLOOKUP(Resultados_Partidos!A6,Resultados_Partidos!A3:E32,2, FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S22" s="15">
         <f>VLOOKUP(Resultados_Partidos!A6,Resultados_Partidos!A3:E32,3, FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T22" s="17">
         <f>VLOOKUP(Resultados_Partidos!A6,Resultados_Partidos!A5:E32,4,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
@@ -50603,7 +49896,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -50611,33 +49904,33 @@
         <v>332</v>
       </c>
       <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" t="s">
         <v>381</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>382</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>383</v>
-      </c>
-      <c r="E3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -50645,16 +49938,16 @@
         <v>333</v>
       </c>
       <c r="B5" s="4">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -50682,7 +49975,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -50698,13 +49991,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -50712,10 +50005,10 @@
         <v>333</v>
       </c>
       <c r="B5" s="4">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -50743,7 +50036,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -50759,13 +50052,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
-        <v>13.8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -50773,10 +50066,10 @@
         <v>333</v>
       </c>
       <c r="B5" s="4">
-        <v>13.8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -50804,7 +50097,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -50820,13 +50113,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
-        <v>11.3</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4">
-        <v>9.1999999999999993</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -50834,10 +50127,10 @@
         <v>333</v>
       </c>
       <c r="B5" s="4">
-        <v>11.3</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
-        <v>9.1999999999999993</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -50874,7 +50167,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -50890,13 +50183,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="C4" s="4">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -50904,10 +50197,10 @@
         <v>333</v>
       </c>
       <c r="B5" s="3">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="C5" s="4">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -50915,7 +50208,7 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -50931,13 +50224,13 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B108" s="5">
         <v>4</v>
       </c>
       <c r="C108" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -50948,7 +50241,7 @@
         <v>4</v>
       </c>
       <c r="C109" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -50984,7 +50277,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -51000,13 +50293,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
-        <v>13.8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -51014,10 +50307,10 @@
         <v>333</v>
       </c>
       <c r="B5" s="4">
-        <v>13.8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -51045,7 +50338,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -51061,13 +50354,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
-        <v>4.4000000000000004</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -51075,10 +50368,10 @@
         <v>333</v>
       </c>
       <c r="B5" s="3">
-        <v>4.4000000000000004</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoParcial_Victor_DiSalvatore.xlsx
+++ b/ProyectoParcial_Victor_DiSalvatore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9EC892-F54B-4A49-BC42-887944AB8CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E47CAD-5A52-4567-AB7B-F64336F69E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23085,7 +23085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
